--- a/test_cases/TC-3/PE-44.xlsx
+++ b/test_cases/TC-3/PE-44.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Desktop\UADE\Año 2\Segundo Cutrimestre\Testing de Aplicaciones\TPO\test_cases\TC-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E99665F-BA68-490F-92DB-1DE0E8F28884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264B071C-5D1A-4FEC-975F-A5A481B50B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30375" yWindow="645" windowWidth="18510" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1560" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -103,7 +103,17 @@
 Agregar al Carrito</t>
   </si>
   <si>
-    <t>TC-3</t>
+    <t>TC-3-2</t>
+  </si>
+  <si>
+    <t>TC-3-1</t>
+  </si>
+  <si>
+    <t>PE-44
+Agregar al Carrito y seguir comprando</t>
+  </si>
+  <si>
+    <t>Como usuario quiero poder agregar productos al Carrito de Compra y seguir comprando</t>
   </si>
 </sst>
 </file>
@@ -290,43 +300,43 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -609,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G34"/>
+  <dimension ref="B1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="B12" sqref="B12:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,14 +646,14 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -655,32 +665,32 @@
         <v>2</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="17"/>
-      <c r="G4" s="16"/>
+      <c r="E4" s="21"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="2:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -688,128 +698,191 @@
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="16" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="B8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:7" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="18"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:7" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="21"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
+      <c r="E19" s="18"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
         <v>2</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="13" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="2:7" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="C20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="7">
-        <v>2</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7">
-        <v>3</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="13" t="s">
+      <c r="D21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:6" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D11:E11"/>
+  <mergeCells count="11">
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G13:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
